--- a/Analysis/Sound_MST_analysis.xlsx
+++ b/Analysis/Sound_MST_analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D6F96A0-6A3C-474D-82B8-D95D5DE13617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{8D6F96A0-6A3C-474D-82B8-D95D5DE13617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{425DF578-F50B-4A2B-B69C-C6C31BB0020A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sound_MST_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>AVR</t>
   </si>
@@ -60,11 +60,26 @@
   <si>
     <t>95% CI</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>3_MST128_3AFC</t>
+  </si>
+  <si>
+    <t>4_MST128_3AFC</t>
+  </si>
+  <si>
+    <t>5_MST128_3AFC</t>
+  </si>
+  <si>
+    <t>6_MST128_3AFC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,10 +566,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1456,16 +1471,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>815975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1789,16 +1804,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
     <col min="3" max="3" width="12.08984375" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" customWidth="1"/>
@@ -1814,21 +1829,21 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1909,7 +1924,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1949,7 +1964,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2081,39 +2096,39 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <f>AVERAGE(B3:B8)</f>
+        <f t="shared" ref="B10:J10" si="2">AVERAGE(B3:B8)</f>
         <v>0.69999999993333317</v>
       </c>
       <c r="C10">
-        <f>AVERAGE(C3:C8)</f>
+        <f t="shared" si="2"/>
         <v>0.22666666666666641</v>
       </c>
       <c r="D10">
-        <f>AVERAGE(D3:D8)</f>
+        <f t="shared" si="2"/>
         <v>7.3333333399999992E-2</v>
       </c>
       <c r="E10">
-        <f>AVERAGE(E3:E8)</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666646</v>
       </c>
       <c r="F10">
-        <f>AVERAGE(F3:F8)</f>
+        <f t="shared" si="2"/>
         <v>0.59333333339999972</v>
       </c>
       <c r="G10">
-        <f>AVERAGE(G3:G8)</f>
+        <f t="shared" si="2"/>
         <v>0.23999999993333324</v>
       </c>
       <c r="H10">
-        <f>AVERAGE(H3:H8)</f>
+        <f t="shared" si="2"/>
         <v>9.3877550967346846E-2</v>
       </c>
       <c r="I10">
-        <f>AVERAGE(I3:I8)</f>
+        <f t="shared" si="2"/>
         <v>0.14285714292653048</v>
       </c>
       <c r="J10">
-        <f>AVERAGE(J3:J8)</f>
+        <f t="shared" si="2"/>
         <v>0.73877551018775467</v>
       </c>
       <c r="L10">
@@ -2130,39 +2145,39 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <f>STDEV(B3:B8)</f>
+        <f t="shared" ref="B11:J11" si="3">STDEV(B3:B8)</f>
         <v>0.16996731720147509</v>
       </c>
       <c r="C11">
-        <f>STDEV(C3:C8)</f>
+        <f t="shared" si="3"/>
         <v>0.15705625319186312</v>
       </c>
       <c r="D11">
-        <f>STDEV(D3:D8)</f>
+        <f t="shared" si="3"/>
         <v>5.9628479530431697E-2</v>
       </c>
       <c r="E11">
-        <f>STDEV(E3:E8)</f>
+        <f t="shared" si="3"/>
         <v>0.15456030825826167</v>
       </c>
       <c r="F11">
-        <f>STDEV(F3:F8)</f>
+        <f t="shared" si="3"/>
         <v>0.1977652928937064</v>
       </c>
       <c r="G11">
-        <f>STDEV(G3:G8)</f>
+        <f t="shared" si="3"/>
         <v>0.19350567018967577</v>
       </c>
       <c r="H11">
-        <f>STDEV(H3:H8)</f>
+        <f t="shared" si="3"/>
         <v>0.16617308562787375</v>
       </c>
       <c r="I11">
-        <f>STDEV(I3:I8)</f>
+        <f t="shared" si="3"/>
         <v>0.177328032652219</v>
       </c>
       <c r="J11">
-        <f>STDEV(J3:J8)</f>
+        <f t="shared" si="3"/>
         <v>0.38705629834813687</v>
       </c>
       <c r="L11">
@@ -2183,43 +2198,43 @@
         <v>7.6011695043153527E-2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:M12" si="2">C11/(SQRT(5))</f>
+        <f t="shared" ref="C12:M12" si="4">C11/(SQRT(5))</f>
         <v>7.0237691685684847E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6666666725000003E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.9121471177759033E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.8443327700096719E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.6538366515153925E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4314863098963804E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.930350706533279E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17309683884517471</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1464862014964593</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13705279950135721</v>
       </c>
     </row>
@@ -2232,43 +2247,43 @@
         <v>0.1489829222845809</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:M13" si="3">C12*1.96</f>
+        <f t="shared" ref="C13:M13" si="5">C12*1.96</f>
         <v>0.13766587570394229</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.2266666781000004E-2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1354780835084077</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17334892229218957</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16961519836970168</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14565713167396904</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15543487384805227</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.33926980413654245</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28711295493306022</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26862348702266015</v>
       </c>
     </row>
@@ -2289,7 +2304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2324,7 @@
         <v>0.60612244896598633</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -2329,7 +2344,7 @@
         <v>0.30645937619168401</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2349,7 +2364,7 @@
         <v>0.13705279950135721</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2367,6 +2382,257 @@
       </c>
       <c r="F20">
         <v>0.26862348702266015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G24">
+        <v>0.125</v>
+      </c>
+      <c r="H24">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.171875</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24">
+        <v>0.578125</v>
+      </c>
+      <c r="M24">
+        <v>0.72812500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C25">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="G25">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H25">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I25">
+        <v>3.125E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25">
+        <v>0.84375</v>
+      </c>
+      <c r="M25">
+        <v>0.79374999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C26">
+        <v>0.05</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.125</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G26">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>3.125E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.96875</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="M26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C27">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G27">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H27">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I27">
+        <v>9.375E-2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.890625</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27">
+        <v>0.57291666666666596</v>
+      </c>
+      <c r="M27">
+        <v>0.68437499999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <f>AVERAGE(B24:B27)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:M29" si="6">AVERAGE(C24:C27)</f>
+        <v>0.18125000000000002</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="6"/>
+        <v>0.78124999999999978</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>8.203125E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="6"/>
+        <v>0.89453125</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>0.69921874999999978</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0.7890625</v>
       </c>
     </row>
   </sheetData>
